--- a/testdata/Login Data.xlsx
+++ b/testdata/Login Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Class-TechnoCredit\TechnoHybridFramework\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation Class-TechnoCredit\Projects\DeepakHybridDrivenFramework\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C6E9C8-BFCC-4C00-9D81-0A0682E94611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144E59D3-1B0B-44E1-BE3B-D9A328EDFA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E93AA519-C937-4738-84DA-ED2773505DEA}"/>
   </bookViews>
@@ -49,16 +49,16 @@
     <t>LoginSuccesfull</t>
   </si>
   <si>
-    <t>http://dpatil-trials77.orangehrmlive.com/</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>RKh@6Eoa9H</t>
-  </si>
-  <si>
     <t>RKh@6Eoa9INVALID</t>
+  </si>
+  <si>
+    <t>http://drpatil-trials77.orangehrmlive.com/</t>
+  </si>
+  <si>
+    <t>TsTz39U@Rc</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,28 +450,28 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="b">
         <v>0</v>
@@ -480,6 +480,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{C9B26714-CE31-4FC2-9976-B3B8432E1B9E}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{BD1236C3-B0C5-433B-90A4-FDCD2D311919}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{809CBDA8-A45C-4CDA-9E89-18A8E5E1D77C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
